--- a/02_programme_task/xlsx_out/Haggai.xlsx
+++ b/02_programme_task/xlsx_out/Haggai.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Haggai 1:216</t>
+          <t>Haggai 1:2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Haggai 1:316</t>
+          <t>Haggai 1:3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Haggai 1:516</t>
+          <t>Haggai 1:5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Haggai 1:716</t>
+          <t>Haggai 1:7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Haggai 1:1016</t>
+          <t>Haggai 1:10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Haggai 1:1116</t>
+          <t>Haggai 1:11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Haggai 1:1316</t>
+          <t>Haggai 1:13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Haggai 1:1416</t>
+          <t>Haggai 1:14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Haggai 2:216</t>
+          <t>Haggai 2:2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Haggai 2:416</t>
+          <t>Haggai 2:4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Haggai 2:716</t>
+          <t>Haggai 2:7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Haggai 2:1116</t>
+          <t>Haggai 2:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Haggai 2:1216</t>
+          <t>Haggai 2:12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Haggai 2:1316</t>
+          <t>Haggai 2:13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Haggai 2:1416</t>
+          <t>Haggai 2:14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Haggai 2:1516</t>
+          <t>Haggai 2:15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Haggai 2:1616</t>
+          <t>Haggai 2:16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Haggai 2:2016</t>
+          <t>Haggai 2:20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Haggai 2:2116</t>
+          <t>Haggai 2:21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Haggai 2:2216</t>
+          <t>Haggai 2:22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Haggai 2:2316</t>
+          <t>Haggai 2:23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
